--- a/product-definitions/spreadsheet/o3-concentration-profile.xlsx
+++ b/product-definitions/spreadsheet/o3-concentration-profile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -23,6 +23,15 @@
     <t>units</t>
   </si>
   <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -35,24 +44,12 @@
     <t>Proposed name</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;</t>
-  </si>
-  <si>
     <t>example value</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -62,12 +59,6 @@
     <t>dimension</t>
   </si>
   <si>
-    <t>time, index</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>standard_name</t>
   </si>
   <si>
@@ -113,8 +104,7 @@
     <t>mole_fraction_of_ozone_in_air</t>
   </si>
   <si>
-    <t xml:space="preserve">?
-</t>
+    <t>time, altitude</t>
   </si>
   <si>
     <t>1
@@ -130,10 +120,7 @@
     <t>practical_units</t>
   </si>
   <si>
-    <t>ppm
-ppb
-ppt
-mmol mol-1
+    <t>mmol mol-1
 micro mol mol-1
 nmol mol-1
 pmol mol-1</t>
@@ -151,7 +138,7 @@
     <t>cell_methods</t>
   </si>
   <si>
-    <t>time: mean</t>
+    <t>time: mean or time: point</t>
   </si>
   <si>
     <t>chemical_species</t>
@@ -160,10 +147,27 @@
     <t>O3</t>
   </si>
   <si>
+    <t>mass_fraction_of_ozone_in_air</t>
+  </si>
+  <si>
     <t>qc_flag_o3</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>byte</t>
+  </si>
+  <si>
+    <t>time, index</t>
+  </si>
+  <si>
+    <t>ppm
+ppb
+ppt</t>
+  </si>
+  <si>
+    <t>Mass Fraction of Ozone in air</t>
   </si>
   <si>
     <t>Data Quality flag</t>
@@ -182,13 +186,34 @@
 good_data 
 bad_data_no ozone_wavelengths_available
 bad_data_gate_index_exceeds_number_of_measurement_gates_in_use</t>
+  </si>
+  <si>
+    <t>mole_concentration_of_ozone_in_air</t>
+  </si>
+  <si>
+    <t>mol m-3</t>
+  </si>
+  <si>
+    <t>Mole Concentration of Ozone in air</t>
+  </si>
+  <si>
+    <t>mass_concentration_of_ozone_in_air</t>
+  </si>
+  <si>
+    <t>kg m-3</t>
+  </si>
+  <si>
+    <t>Mass Concentration of Ozone in air</t>
+  </si>
+  <si>
+    <t>qc_flag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -201,6 +226,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <name val="Arial"/>
     </font>
@@ -209,49 +238,44 @@
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border/>
-    <border>
-      <right/>
-    </border>
-    <border>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -261,64 +285,82 @@
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -362,50 +404,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1"/>
@@ -1429,106 +1471,112 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="12.0" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" ht="12.0" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="12.0" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" ht="12.0" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="12.0" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+    <row r="8" ht="12.0" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="9">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="9" ht="12.0" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
@@ -1536,302 +1584,792 @@
         <v>25</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13" t="s">
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="F17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" ht="12.0" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" ht="12.0" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" ht="12.0" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" ht="12.0" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" ht="12.0" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" ht="12.0" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" ht="12.0" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" ht="12.0" customHeight="1">
+      <c r="A28" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="I28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" ht="12.0" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" ht="12.0" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" ht="12.0" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" ht="12.0" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="12.0" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" ht="12.0" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" ht="12.0" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="22">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" ht="12.0" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" ht="12.0" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" ht="12.0" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" ht="12.0" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" ht="12.0" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" ht="12.0" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" ht="12.0" customHeight="1">
+      <c r="A42" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" ht="12.0" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" ht="12.0" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="C44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" ht="12.0" customHeight="1">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" ht="12.0" customHeight="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C46" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" ht="12.0" customHeight="1">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="15" t="s">
+      <c r="C47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" ht="12.0" customHeight="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="22">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" ht="12.0" customHeight="1">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" ht="12.0" customHeight="1">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" ht="12.0" customHeight="1">
+      <c r="A51" s="10"/>
+      <c r="B51" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" ht="12.0" customHeight="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" ht="12.0" customHeight="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" ht="12.0" customHeight="1">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" ht="12.0" customHeight="1">
+      <c r="A55" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" ht="12.0" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" ht="12.0" customHeight="1">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" ht="12.0" customHeight="1">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="C58" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" ht="12.0" customHeight="1">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" ht="12.0" customHeight="1">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" ht="12.0" customHeight="1">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="22">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" ht="12.0" customHeight="1">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" ht="12.0" customHeight="1">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" ht="12.0" customHeight="1">
+      <c r="A64" s="10"/>
+      <c r="B64" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="24">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" ht="12.0" customHeight="1">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" ht="12.0" customHeight="1">
+      <c r="A66" s="10"/>
+      <c r="B66" s="25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="C66" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" ht="12.0" customHeight="1"/>
+    <row r="68" ht="12.0" customHeight="1">
+      <c r="A68" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" ht="12.0" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" ht="12.0" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" ht="12.0" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="72" ht="12.0" customHeight="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73" ht="12.0" customHeight="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" ht="12.0" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="C74" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="19" t="s">
+    </row>
+    <row r="75" ht="12.0" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C75" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" ht="12.0" customHeight="1"/>
-    <row r="40" ht="12.0" customHeight="1"/>
-    <row r="41" ht="12.0" customHeight="1"/>
-    <row r="42" ht="12.0" customHeight="1"/>
-    <row r="43" ht="12.0" customHeight="1"/>
-    <row r="44" ht="12.0" customHeight="1"/>
-    <row r="45" ht="12.0" customHeight="1"/>
-    <row r="46" ht="12.0" customHeight="1"/>
-    <row r="47" ht="12.0" customHeight="1"/>
-    <row r="48" ht="12.0" customHeight="1"/>
-    <row r="49" ht="12.0" customHeight="1"/>
-    <row r="50" ht="12.0" customHeight="1"/>
-    <row r="51" ht="12.0" customHeight="1"/>
-    <row r="52" ht="12.0" customHeight="1"/>
-    <row r="53" ht="12.0" customHeight="1"/>
-    <row r="54" ht="12.0" customHeight="1"/>
-    <row r="55" ht="12.0" customHeight="1"/>
-    <row r="56" ht="12.0" customHeight="1"/>
-    <row r="57" ht="12.0" customHeight="1"/>
-    <row r="58" ht="12.0" customHeight="1"/>
-    <row r="59" ht="12.0" customHeight="1"/>
-    <row r="60" ht="12.0" customHeight="1"/>
-    <row r="61" ht="12.0" customHeight="1"/>
-    <row r="62" ht="12.0" customHeight="1"/>
-    <row r="63" ht="12.0" customHeight="1"/>
-    <row r="64" ht="12.0" customHeight="1"/>
-    <row r="65" ht="12.0" customHeight="1"/>
-    <row r="66" ht="12.0" customHeight="1"/>
-    <row r="67" ht="12.0" customHeight="1"/>
-    <row r="68" ht="12.0" customHeight="1"/>
-    <row r="69" ht="12.0" customHeight="1"/>
-    <row r="70" ht="12.0" customHeight="1"/>
-    <row r="71" ht="12.0" customHeight="1"/>
-    <row r="72" ht="12.0" customHeight="1"/>
-    <row r="73" ht="12.0" customHeight="1"/>
-    <row r="74" ht="12.0" customHeight="1"/>
-    <row r="75" ht="12.0" customHeight="1"/>
-    <row r="76" ht="12.0" customHeight="1"/>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" ht="12.0" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="10"/>
+    </row>
     <row r="77" ht="12.0" customHeight="1"/>
     <row r="78" ht="12.0" customHeight="1"/>
     <row r="79" ht="12.0" customHeight="1"/>
@@ -2757,7 +3295,6 @@
     <row r="999" ht="12.0" customHeight="1"/>
     <row r="1000" ht="12.0" customHeight="1"/>
     <row r="1001" ht="12.0" customHeight="1"/>
-    <row r="1002" ht="12.0" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
